--- a/back-end/excelSheets/excelFormats/faculty_guest_lecture.xlsx
+++ b/back-end/excelSheets/excelFormats/faculty_guest_lecture.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>slNo</t>
   </si>
@@ -93,12 +93,6 @@
     <t>title20</t>
   </si>
   <si>
-    <t>title21</t>
-  </si>
-  <si>
-    <t>title22</t>
-  </si>
-  <si>
     <t>place1</t>
   </si>
   <si>
@@ -159,10 +153,64 @@
     <t>place20</t>
   </si>
   <si>
-    <t>place21</t>
-  </si>
-  <si>
-    <t>place22</t>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>14/05/2013</t>
+  </si>
+  <si>
+    <t>17/07/2013</t>
+  </si>
+  <si>
+    <t>19/09/2013</t>
+  </si>
+  <si>
+    <t>22/11/2013</t>
+  </si>
+  <si>
+    <t>25/01/2014</t>
+  </si>
+  <si>
+    <t>30/03/2014</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>13/02/2015</t>
+  </si>
+  <si>
+    <t>18/04/2015</t>
+  </si>
+  <si>
+    <t>21/06/2015</t>
+  </si>
+  <si>
+    <t>24/08/2015</t>
+  </si>
+  <si>
+    <t>27/10/2015</t>
+  </si>
+  <si>
+    <t>30/12/2015</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
   </si>
 </sst>
 </file>
@@ -198,12 +246,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -508,7 +559,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -525,378 +576,350 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>41344</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
-        <v>41408</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <v>41472</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>41536</v>
-      </c>
-      <c r="E5" s="3">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>41600</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>41664</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
-        <v>41728</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>41792</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>41856</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
-        <v>41920</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
-        <v>41984</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1">
-        <v>42048</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1">
-        <v>42112</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1">
-        <v>42176</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1">
-        <v>42240</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1">
-        <v>42304</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1">
-        <v>42368</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1">
-        <v>42432</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1">
-        <v>42496</v>
-      </c>
-      <c r="E20" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="1">
-        <v>42560</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1">
-        <v>42624</v>
-      </c>
-      <c r="E22" s="3">
-        <v>11</v>
-      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1">
-        <v>42688</v>
-      </c>
-      <c r="E23" s="3">
-        <v>14</v>
-      </c>
+      <c r="D23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
